--- a/data/trans_orig/AIRE_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Dificultad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3577</v>
+        <v>3409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002199805476820212</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01135499325604811</v>
+        <v>0.01082006205554501</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4257</v>
+        <v>3556</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001196980412871786</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007353135965354294</v>
+        <v>0.006141212441557593</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7962</v>
+        <v>6382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005140539818116504</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03016582069151205</v>
+        <v>0.024179797229599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -825,19 +825,19 @@
         <v>2478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6913</v>
+        <v>7196</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007867098387001177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002149409328644697</v>
+        <v>0.002155156625687525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02194443645097879</v>
+        <v>0.02284150650084141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -846,19 +846,19 @@
         <v>3835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9938</v>
+        <v>9990</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.006624142452936845</v>
+        <v>0.006624142452936844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001875654794585597</v>
+        <v>0.001856042640954694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01716583191412166</v>
+        <v>0.01725487179129286</v>
       </c>
     </row>
     <row r="6">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5047</v>
+        <v>5358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002941888924272436</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01602061979703712</v>
+        <v>0.01700767776476336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4187</v>
+        <v>4573</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001600770366427428</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007231901339616792</v>
+        <v>0.007897815314541298</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3568</v>
+        <v>3988</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002294431607768723</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01132460704840162</v>
+        <v>0.01265985435177388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3679</v>
+        <v>4200</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00124846934063595</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006354365017561469</v>
+        <v>0.007254590216900961</v>
       </c>
     </row>
     <row r="9">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5699</v>
+        <v>5612</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003805023491886301</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02159233935139727</v>
+        <v>0.02126217662744221</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4036</v>
+        <v>3784</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002142940017052104</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01281170057390185</v>
+        <v>0.01201284441975203</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6450</v>
+        <v>5989</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00290063381520899</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01114098886886518</v>
+        <v>0.01034342722934252</v>
       </c>
     </row>
     <row r="10">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10511</v>
+        <v>11555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01082849665414862</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03982477877879792</v>
+        <v>0.04378068705834017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1187,19 +1187,19 @@
         <v>6378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2477</v>
+        <v>2348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15186</v>
+        <v>15477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02024444900205233</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007863135207065523</v>
+        <v>0.007453588594127637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0482057433331158</v>
+        <v>0.04912725650662945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1208,19 +1208,19 @@
         <v>9236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4458</v>
+        <v>3997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18745</v>
+        <v>18949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0159519999128397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007699782358405645</v>
+        <v>0.006903190089056717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03237710006338086</v>
+        <v>0.03272812096812986</v>
       </c>
     </row>
     <row r="12">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7342</v>
+        <v>6756</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007675452354676818</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02781566755060317</v>
+        <v>0.02559546486033646</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1258,19 +1258,19 @@
         <v>2321</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6601</v>
+        <v>6927</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007368096363608185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00222657666672486</v>
+        <v>0.002128635032214498</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02095391028095464</v>
+        <v>0.0219893507247833</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1279,19 +1279,19 @@
         <v>4347</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1580</v>
+        <v>1448</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9886</v>
+        <v>9602</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.007508210703101452</v>
+        <v>0.00750821070310145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002728767797172117</v>
+        <v>0.002501774409019213</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0170755392948844</v>
+        <v>0.01658524892071017</v>
       </c>
     </row>
     <row r="13">
@@ -1308,19 +1308,19 @@
         <v>10387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3826</v>
+        <v>3607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23758</v>
+        <v>23500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03935479767775085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01449738180596999</v>
+        <v>0.01366561140367345</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09001574968981267</v>
+        <v>0.08903624383250063</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1329,19 +1329,19 @@
         <v>7989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4225</v>
+        <v>3919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14070</v>
+        <v>13722</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02535882774456308</v>
+        <v>0.02535882774456307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01341050162437746</v>
+        <v>0.01243863652019629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04466313465555796</v>
+        <v>0.04355719683099869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1350,19 +1350,19 @@
         <v>18376</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11145</v>
+        <v>10734</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34025</v>
+        <v>33113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03173916891161817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01925048424623527</v>
+        <v>0.01853984336861987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05876877366880276</v>
+        <v>0.05719352497756246</v>
       </c>
     </row>
     <row r="14">
@@ -1379,19 +1379,19 @@
         <v>8359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3900</v>
+        <v>4270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15198</v>
+        <v>15807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03167076324867406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01477530395710636</v>
+        <v>0.01617767193195741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05758407170930185</v>
+        <v>0.05989129676250742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1400,19 +1400,19 @@
         <v>11120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6247</v>
+        <v>6620</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17730</v>
+        <v>17324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0352990648029401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01982937120810097</v>
+        <v>0.02101453825962254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05627993150585247</v>
+        <v>0.05498992559734148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1421,19 +1421,19 @@
         <v>19479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13575</v>
+        <v>12711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28548</v>
+        <v>28505</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03364503140020465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02344691641090954</v>
+        <v>0.02195415952579758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04930845534141436</v>
+        <v>0.04923344905409899</v>
       </c>
     </row>
     <row r="15">
@@ -1450,19 +1450,19 @@
         <v>237944</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>223278</v>
+        <v>223612</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>247475</v>
+        <v>246979</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.901524926754747</v>
+        <v>0.9015249267547469</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8459594339793519</v>
+        <v>0.8472223486017693</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.937636213928165</v>
+        <v>0.9357562305259405</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>384</v>
@@ -1471,19 +1471,19 @@
         <v>281731</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>270106</v>
+        <v>271199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>290369</v>
+        <v>290810</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8942833976739216</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8573841239420025</v>
+        <v>0.8608531525896962</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9217050757019062</v>
+        <v>0.9231033125703649</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>596</v>
@@ -1492,19 +1492,19 @@
         <v>519674</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>502650</v>
+        <v>502140</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>532628</v>
+        <v>533204</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8975845926841549</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8681804284002071</v>
+        <v>0.8672995052206138</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9199598571846783</v>
+        <v>0.9209548842164719</v>
       </c>
     </row>
     <row r="16">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7821</v>
+        <v>9261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004585645880221775</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01547123175480302</v>
+        <v>0.01832163113753043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         <v>4237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1935</v>
+        <v>1475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9058</v>
+        <v>9054</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00737033720272284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003366507204659678</v>
+        <v>0.002565316649360037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01575682421756304</v>
+        <v>0.01575038870651321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1638,19 +1638,19 @@
         <v>6555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2989</v>
+        <v>2756</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>13099</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006067391247944785</v>
+        <v>0.006067391247944783</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002766589271906829</v>
+        <v>0.002550771787718619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01212477320492618</v>
+        <v>0.01212500739282401</v>
       </c>
     </row>
     <row r="18">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5886</v>
+        <v>6671</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003690377331537459</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01164419163736124</v>
+        <v>0.0131962135705769</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6581</v>
+        <v>6295</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001726712823384943</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006091192306559056</v>
+        <v>0.005826890367555872</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9094</v>
+        <v>9390</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005601214514147017</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01799039778751536</v>
+        <v>0.01857619550924391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2855</v>
+        <v>3245</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001230384040067773</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0049659078730321</v>
+        <v>0.005645432710233707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>3539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10565</v>
+        <v>10555</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.003275478172837679</v>
+        <v>0.003275478172837678</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006554981251930743</v>
+        <v>0.0006457483583647259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009779086556911891</v>
+        <v>0.009770378789021438</v>
       </c>
     </row>
     <row r="21">
@@ -1895,19 +1895,19 @@
         <v>4297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1349</v>
+        <v>1034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11604</v>
+        <v>11095</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008499987093423214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002668793800114777</v>
+        <v>0.002046410553872083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02295682965623025</v>
+        <v>0.02194907390974672</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1916,19 +1916,19 @@
         <v>2007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5416</v>
+        <v>5382</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00349125063476475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001129160068061316</v>
+        <v>0.001124048516406122</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009421310986595008</v>
+        <v>0.009361659739343326</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -1937,19 +1937,19 @@
         <v>6304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2688</v>
+        <v>2742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13393</v>
+        <v>13728</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.005834818431534767</v>
+        <v>0.005834818431534766</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002487888690508709</v>
+        <v>0.002537763808236454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01239705042341598</v>
+        <v>0.0127066496976772</v>
       </c>
     </row>
     <row r="23">
@@ -1966,19 +1966,19 @@
         <v>4239</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10672</v>
+        <v>10476</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008385640807774333</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002231123087562715</v>
+        <v>0.002214947958106349</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02111180499345947</v>
+        <v>0.02072476777851849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -1987,19 +1987,19 @@
         <v>2508</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7055</v>
+        <v>6787</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00436226304335134</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001244981828838039</v>
+        <v>0.001197915477259904</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01227276888187688</v>
+        <v>0.01180582863553511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2008,19 +2008,19 @@
         <v>6747</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2746</v>
+        <v>2981</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13297</v>
+        <v>13127</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00624478544012119</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002541899475225303</v>
+        <v>0.002758880418349409</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01230763204020866</v>
+        <v>0.01215087888075198</v>
       </c>
     </row>
     <row r="24">
@@ -2037,19 +2037,19 @@
         <v>9256</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3226</v>
+        <v>3205</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28435</v>
+        <v>27176</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01831024113826375</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006382689466555178</v>
+        <v>0.006340112582209173</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05625222991473506</v>
+        <v>0.05376135224177762</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2058,19 +2058,19 @@
         <v>8058</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4005</v>
+        <v>3799</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15744</v>
+        <v>15077</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01401718941954525</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006967419437924254</v>
+        <v>0.006608401353160937</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02738780863746779</v>
+        <v>0.02622753352695222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -2079,19 +2079,19 @@
         <v>17314</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9875</v>
+        <v>9332</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35063</v>
+        <v>34357</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01602589118313366</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009140147270310631</v>
+        <v>0.008638286550588091</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03245546071209573</v>
+        <v>0.03180158321506706</v>
       </c>
     </row>
     <row r="25">
@@ -2108,19 +2108,19 @@
         <v>9919</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4000</v>
+        <v>3821</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20448</v>
+        <v>20334</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01962234998899868</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007913686869693856</v>
+        <v>0.007559758797667806</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04045131472843432</v>
+        <v>0.04022591568026813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2129,19 +2129,19 @@
         <v>4177</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1439</v>
+        <v>1615</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8329</v>
+        <v>8770</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007266342022365224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00250243164675758</v>
+        <v>0.002809689358694535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01448888463031213</v>
+        <v>0.01525677224432252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2150,19 +2150,19 @@
         <v>14096</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7549</v>
+        <v>7254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25670</v>
+        <v>24889</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01304766883128098</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006987262127782639</v>
+        <v>0.006714546141552593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02376068721546526</v>
+        <v>0.02303798701336237</v>
       </c>
     </row>
     <row r="26">
@@ -2179,19 +2179,19 @@
         <v>33368</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21522</v>
+        <v>21304</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49267</v>
+        <v>51171</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06601032183696603</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0425770977152152</v>
+        <v>0.04214517574898188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09746377128696067</v>
+        <v>0.1012299442479658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -2200,19 +2200,19 @@
         <v>23851</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16016</v>
+        <v>16441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34173</v>
+        <v>35155</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04149104300041245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02786068504388256</v>
+        <v>0.02859974798399854</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05944610397868851</v>
+        <v>0.06115464046449751</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>59</v>
@@ -2221,19 +2221,19 @@
         <v>57219</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>42338</v>
+        <v>43936</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74926</v>
+        <v>79525</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.05296351569999671</v>
+        <v>0.0529635156999967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03918906486687176</v>
+        <v>0.04066852660651041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06935402535923402</v>
+        <v>0.07361037270608639</v>
       </c>
     </row>
     <row r="27">
@@ -2250,19 +2250,19 @@
         <v>40703</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29464</v>
+        <v>29287</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>54286</v>
+        <v>54814</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08052182525083065</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05828800177659807</v>
+        <v>0.05793826443019665</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1073925376979965</v>
+        <v>0.1084371574482472</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>74</v>
@@ -2271,19 +2271,19 @@
         <v>54709</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42767</v>
+        <v>42778</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69363</v>
+        <v>68603</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09517036641596648</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07439538222596134</v>
+        <v>0.07441533679424001</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.12066183636254</v>
+        <v>0.1193385305053178</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>115</v>
@@ -2292,19 +2292,19 @@
         <v>95412</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>79079</v>
+        <v>78897</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>115717</v>
+        <v>117267</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.08831637247405578</v>
+        <v>0.08831637247405576</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07319783272049614</v>
+        <v>0.07302958817266765</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1071110490494417</v>
+        <v>0.1085454573897382</v>
       </c>
     </row>
     <row r="28">
@@ -2321,19 +2321,19 @@
         <v>396695</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>375540</v>
+        <v>372757</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>416496</v>
+        <v>416959</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7847723961578371</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7429225266718452</v>
+        <v>0.7374164537462099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8239455883630994</v>
+        <v>0.824861717760373</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>697</v>
@@ -2342,19 +2342,19 @@
         <v>474602</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>456886</v>
+        <v>454979</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>490033</v>
+        <v>491005</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8256008242208039</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7947818681389447</v>
+        <v>0.7914645399445872</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8524440204552906</v>
+        <v>0.8541334770298517</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1092</v>
@@ -2363,19 +2363,19 @@
         <v>871297</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>841533</v>
+        <v>842135</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>897549</v>
+        <v>896714</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8064973656957094</v>
+        <v>0.8064973656957093</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7789466344151569</v>
+        <v>0.7795045584515361</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8307971312679484</v>
+        <v>0.8300242220666925</v>
       </c>
     </row>
     <row r="29">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4172</v>
+        <v>4206</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001397439939859247</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.006903036978592305</v>
+        <v>0.00696022390091908</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13044</v>
+        <v>13524</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00560219380131266</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02284416825411442</v>
+        <v>0.02368348436974147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2509,19 +2509,19 @@
         <v>4043</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14844</v>
+        <v>14185</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003440274036668237</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0005963406194919867</v>
+        <v>0.0005983326360233833</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01262965373091391</v>
+        <v>0.01206883254695739</v>
       </c>
     </row>
     <row r="31">
@@ -2538,19 +2538,19 @@
         <v>4708</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1620</v>
+        <v>1702</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9955</v>
+        <v>10301</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.007790397813108221</v>
+        <v>0.007790397813108222</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002680692632993842</v>
+        <v>0.002816308028866797</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01647341279842067</v>
+        <v>0.0170466101649773</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2559,19 +2559,19 @@
         <v>7922</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3782</v>
+        <v>3664</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15934</v>
+        <v>14453</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0138732072057323</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006623219366808553</v>
+        <v>0.006416496259632408</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02790367512721576</v>
+        <v>0.02531142505345168</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2580,19 +2580,19 @@
         <v>12630</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7266</v>
+        <v>7405</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21145</v>
+        <v>20891</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01074566483731097</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00618231182403489</v>
+        <v>0.006300492478739321</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01799068422313302</v>
+        <v>0.01777478677257024</v>
       </c>
     </row>
     <row r="32">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3319</v>
+        <v>3915</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001251542703815401</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005812002052337692</v>
+        <v>0.006857007685542775</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3291</v>
+        <v>3216</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0006080484597219374</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.002800135501614338</v>
+        <v>0.002735858736512559</v>
       </c>
     </row>
     <row r="33">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7561</v>
+        <v>7283</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.003509950167438127</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01251191389901161</v>
+        <v>0.01205098078974264</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -2693,19 +2693,19 @@
         <v>2345</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7126</v>
+        <v>7255</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.004106037386582074</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0007870409985401156</v>
+        <v>0.0008081726765208845</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01247950482299646</v>
+        <v>0.01270585594895656</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -2714,19 +2714,19 @@
         <v>4466</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1515</v>
+        <v>1606</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10279</v>
+        <v>11563</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.003799552683081789</v>
+        <v>0.003799552683081788</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.001288959206770097</v>
+        <v>0.001366550672385123</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.008745643146158697</v>
+        <v>0.009838040506763936</v>
       </c>
     </row>
     <row r="34">
@@ -2790,19 +2790,19 @@
         <v>7248</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3107</v>
+        <v>2833</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17664</v>
+        <v>15954</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01199393727038333</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005141680359670229</v>
+        <v>0.004688001737838859</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02923041330827915</v>
+        <v>0.02640070303911124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -2811,19 +2811,19 @@
         <v>8493</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4328</v>
+        <v>4438</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15734</v>
+        <v>15992</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01487252031637288</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007580191237910319</v>
+        <v>0.007771857459287408</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02755338864042935</v>
+        <v>0.02800609150876148</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>18</v>
@@ -2832,19 +2832,19 @@
         <v>15741</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9327</v>
+        <v>9456</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25435</v>
+        <v>25492</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01339246564816834</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007935642124520425</v>
+        <v>0.008045729706509019</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02164101159694224</v>
+        <v>0.02168924375176103</v>
       </c>
     </row>
     <row r="36">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5221</v>
+        <v>5631</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002659541800974452</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.00864033982251702</v>
+        <v>0.009317930359095448</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -2882,19 +2882,19 @@
         <v>5137</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10835</v>
+        <v>10332</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.008995563423589504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003823431547304449</v>
+        <v>0.003841120084688158</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01897545797015581</v>
+        <v>0.01809364772244774</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -2903,19 +2903,19 @@
         <v>6744</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3110</v>
+        <v>3244</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13087</v>
+        <v>13021</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005737829243065777</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002646489269386511</v>
+        <v>0.002760361229040353</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01113484992718683</v>
+        <v>0.01107881865602587</v>
       </c>
     </row>
     <row r="37">
@@ -2932,19 +2932,19 @@
         <v>18068</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9866</v>
+        <v>10556</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30101</v>
+        <v>30757</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02989876122564779</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01632687474618693</v>
+        <v>0.01746709316695113</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04981126550093771</v>
+        <v>0.050895731210762</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -2953,19 +2953,19 @@
         <v>16492</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10890</v>
+        <v>10262</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>26853</v>
+        <v>26954</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.02888232157125521</v>
+        <v>0.02888232157125522</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01907091710303533</v>
+        <v>0.01797057077130167</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04702615139585758</v>
+        <v>0.04720249388296005</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>37</v>
@@ -2974,19 +2974,19 @@
         <v>34560</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24361</v>
+        <v>24087</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49639</v>
+        <v>48548</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02940493503468399</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02072667882701703</v>
+        <v>0.02049368460553039</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04223404002838508</v>
+        <v>0.04130620305461674</v>
       </c>
     </row>
     <row r="38">
@@ -3003,19 +3003,19 @@
         <v>14342</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>7829</v>
+        <v>7755</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25232</v>
+        <v>23745</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02373264972072581</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01295524293914344</v>
+        <v>0.01283294619940336</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04175409100546078</v>
+        <v>0.0392929063151525</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>13</v>
@@ -3024,19 +3024,19 @@
         <v>8653</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4546</v>
+        <v>4659</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15565</v>
+        <v>15494</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01515349466613949</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007961053195673957</v>
+        <v>0.008159555147332409</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02725780573503854</v>
+        <v>0.02713347600919289</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>27</v>
@@ -3045,19 +3045,19 @@
         <v>22995</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15239</v>
+        <v>14826</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35334</v>
+        <v>34522</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01956456020947385</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01296570665167305</v>
+        <v>0.01261421196067296</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03006333912092756</v>
+        <v>0.0293718067049068</v>
       </c>
     </row>
     <row r="39">
@@ -3074,19 +3074,19 @@
         <v>33760</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>21256</v>
+        <v>20786</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>51342</v>
+        <v>50887</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.05586549464012979</v>
+        <v>0.0558654946401298</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03517482951169635</v>
+        <v>0.03439575606869639</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08496063799555914</v>
+        <v>0.08420777471550789</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>35</v>
@@ -3095,19 +3095,19 @@
         <v>24905</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>17443</v>
+        <v>17545</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>34607</v>
+        <v>35345</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04361488508933527</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0305475253103908</v>
+        <v>0.03072497955347341</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06060591566571937</v>
+        <v>0.06189769975791615</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>62</v>
@@ -3116,19 +3116,19 @@
         <v>58665</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>43396</v>
+        <v>44324</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>79779</v>
+        <v>78575</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0499136687493257</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03692254808305031</v>
+        <v>0.03771169859216587</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0678783102368474</v>
+        <v>0.06685402680830185</v>
       </c>
     </row>
     <row r="40">
@@ -3145,19 +3145,19 @@
         <v>89278</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>72721</v>
+        <v>72577</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>109089</v>
+        <v>107299</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1477360067981005</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1203377714412225</v>
+        <v>0.120099647089312</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1805189342168455</v>
+        <v>0.1775560499761473</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>90</v>
@@ -3166,19 +3166,19 @@
         <v>63698</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>51040</v>
+        <v>51301</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>79688</v>
+        <v>80671</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1115518699780863</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08938411935328444</v>
+        <v>0.08984147400942091</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1395529026419901</v>
+        <v>0.141274472005092</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>188</v>
@@ -3187,19 +3187,19 @@
         <v>152977</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>130062</v>
+        <v>131166</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>176588</v>
+        <v>175910</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1301563360503873</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1106603156859721</v>
+        <v>0.1115992385058033</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1502457681980949</v>
+        <v>0.1496687597016456</v>
       </c>
     </row>
     <row r="41">
@@ -3216,19 +3216,19 @@
         <v>432332</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>405420</v>
+        <v>408417</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>455447</v>
+        <v>455402</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.7154158206236328</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6708822733919648</v>
+        <v>0.675842200601667</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7536666611920083</v>
+        <v>0.7535932796598634</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>652</v>
@@ -3237,19 +3237,19 @@
         <v>429463</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>410092</v>
+        <v>411323</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>447878</v>
+        <v>447726</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.7520963638577788</v>
+        <v>0.7520963638577789</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.7181726220722211</v>
+        <v>0.7203285001678389</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7843459752260172</v>
+        <v>0.7840791868311011</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1092</v>
@@ -3258,19 +3258,19 @@
         <v>861794</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>830730</v>
+        <v>833088</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>892070</v>
+        <v>892712</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.733236665048112</v>
+        <v>0.7332366650481121</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.7068059869102644</v>
+        <v>0.7088127934169979</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7589959053548535</v>
+        <v>0.7595418470528459</v>
       </c>
     </row>
     <row r="42">
@@ -3362,19 +3362,19 @@
         <v>10144</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4668</v>
+        <v>5145</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>18865</v>
+        <v>19014</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.02571008561689819</v>
+        <v>0.0257100856168982</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01183248928852662</v>
+        <v>0.01304050649870329</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04781639620564203</v>
+        <v>0.04819462258444447</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -3383,19 +3383,19 @@
         <v>4165</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1398</v>
+        <v>1361</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9597</v>
+        <v>9822</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.011226940095875</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.003769022298484442</v>
+        <v>0.003667688020855746</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02586824636097762</v>
+        <v>0.0264750654446594</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>14</v>
@@ -3404,19 +3404,19 @@
         <v>14309</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>8040</v>
+        <v>8413</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>25442</v>
+        <v>24422</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.01869108547263454</v>
+        <v>0.01869108547263453</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01050216247788884</v>
+        <v>0.0109902289786693</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03323408958208937</v>
+        <v>0.03190122652551962</v>
       </c>
     </row>
     <row r="44">
@@ -3433,19 +3433,19 @@
         <v>17934</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9036</v>
+        <v>9089</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>33306</v>
+        <v>32146</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04545705512116764</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02290191039519466</v>
+        <v>0.02303655867672295</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08441916056208977</v>
+        <v>0.08147921266661333</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3454,19 +3454,19 @@
         <v>7046</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3436</v>
+        <v>3447</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14402</v>
+        <v>14360</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01899151759981032</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00926132857049972</v>
+        <v>0.009292010670304123</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03881996609743672</v>
+        <v>0.03870568493627703</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>22</v>
@@ -3475,19 +3475,19 @@
         <v>24980</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>15715</v>
+        <v>15147</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>43260</v>
+        <v>38243</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03263100076641592</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02052782168407717</v>
+        <v>0.01978542981969513</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05650917092107526</v>
+        <v>0.04995602132029962</v>
       </c>
     </row>
     <row r="45">
@@ -3611,19 +3611,19 @@
         <v>3324</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1089</v>
+        <v>818</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8352</v>
+        <v>8791</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.008959195852329996</v>
+        <v>0.008959195852329994</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002935858453671064</v>
+        <v>0.002204359858189323</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02251243618084002</v>
+        <v>0.02369407948708641</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4</v>
@@ -3632,19 +3632,19 @@
         <v>3324</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>777</v>
+        <v>1059</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>7679</v>
+        <v>8569</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.004341915703927002</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001015461377948705</v>
+        <v>0.001383512507995408</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01003079993719703</v>
+        <v>0.01119354664118668</v>
       </c>
     </row>
     <row r="48">
@@ -3661,19 +3661,19 @@
         <v>6373</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2405</v>
+        <v>2631</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13395</v>
+        <v>13752</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01615403664492181</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.006095691183664883</v>
+        <v>0.006669103761239762</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03395208212358338</v>
+        <v>0.03485605672739032</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>15</v>
@@ -3682,19 +3682,19 @@
         <v>9357</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>5249</v>
+        <v>5819</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14931</v>
+        <v>15431</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02521941882875001</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01414686502309084</v>
+        <v>0.01568460737877228</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04024522690136612</v>
+        <v>0.04159250190798385</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>21</v>
@@ -3703,19 +3703,19 @@
         <v>15730</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>9904</v>
+        <v>9400</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>23901</v>
+        <v>24618</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.02054741367505194</v>
+        <v>0.02054741367505193</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01293726114037118</v>
+        <v>0.01227895491147917</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03122123254537828</v>
+        <v>0.03215760132665212</v>
       </c>
     </row>
     <row r="49">
@@ -3732,19 +3732,19 @@
         <v>4501</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1180</v>
+        <v>1590</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>11257</v>
+        <v>12236</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01140759595974913</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.002990299709149321</v>
+        <v>0.004029993231249356</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02853265387910106</v>
+        <v>0.03101277430495147</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>7</v>
@@ -3753,19 +3753,19 @@
         <v>4957</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1958</v>
+        <v>2053</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>9516</v>
+        <v>10171</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01335975836946487</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.005278649159117915</v>
+        <v>0.005533124028351571</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02564861029481874</v>
+        <v>0.02741590425396903</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>11</v>
@@ -3774,19 +3774,19 @@
         <v>9457</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>4840</v>
+        <v>4981</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>16414</v>
+        <v>16693</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01235367692092785</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.006322456615016843</v>
+        <v>0.006506743933958603</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0214413554458616</v>
+        <v>0.02180546392956375</v>
       </c>
     </row>
     <row r="50">
@@ -3803,19 +3803,19 @@
         <v>14482</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>6671</v>
+        <v>6822</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>31258</v>
+        <v>35287</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03670673576255525</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01690741325399946</v>
+        <v>0.01729084170558786</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0792263350213257</v>
+        <v>0.08943864517236712</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>22</v>
@@ -3824,19 +3824,19 @@
         <v>17030</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>10563</v>
+        <v>10298</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>29133</v>
+        <v>28469</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.04590153387441995</v>
+        <v>0.04590153387441994</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02847176086778604</v>
+        <v>0.02775707193157637</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.07852432270785441</v>
+        <v>0.07673458869121953</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>33</v>
@@ -3845,19 +3845,19 @@
         <v>31512</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>20908</v>
+        <v>20655</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>49221</v>
+        <v>51599</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04116283193171768</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02731087377481414</v>
+        <v>0.02698106368763335</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.06429526213097446</v>
+        <v>0.06740149676068678</v>
       </c>
     </row>
     <row r="51">
@@ -3874,19 +3874,19 @@
         <v>11671</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>5840</v>
+        <v>5866</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>22309</v>
+        <v>22442</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02958151665004994</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01480315175880641</v>
+        <v>0.01486885023680859</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.05654385619054092</v>
+        <v>0.05688264420857763</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>10</v>
@@ -3895,19 +3895,19 @@
         <v>6520</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>3233</v>
+        <v>3371</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>11616</v>
+        <v>11575</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.01757379731135924</v>
+        <v>0.01757379731135923</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.008713685156858711</v>
+        <v>0.009085950445288328</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.03130836696428149</v>
+        <v>0.03119830987898018</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>21</v>
@@ -3916,19 +3916,19 @@
         <v>18191</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>11303</v>
+        <v>11047</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>30214</v>
+        <v>28555</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.02376218799328772</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01476411886000885</v>
+        <v>0.01443059067528611</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.03946751644178335</v>
+        <v>0.03730061958298085</v>
       </c>
     </row>
     <row r="52">
@@ -3945,19 +3945,19 @@
         <v>27823</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>17407</v>
+        <v>17602</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>42276</v>
+        <v>41587</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.07052144046484037</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0441192165429555</v>
+        <v>0.04461510991071693</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1071538014217902</v>
+        <v>0.105407000353663</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>48</v>
@@ -3966,19 +3966,19 @@
         <v>30617</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>22204</v>
+        <v>23026</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>41389</v>
+        <v>42900</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.0825232840124962</v>
+        <v>0.08252328401249619</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0598474350824394</v>
+        <v>0.06206389585346942</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.111557973856954</v>
+        <v>0.1156315622825663</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>71</v>
@@ -3987,19 +3987,19 @@
         <v>58440</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>43455</v>
+        <v>45044</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>74590</v>
+        <v>76095</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.07633792152347126</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.05676374939374312</v>
+        <v>0.05883942982524453</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09743460874677898</v>
+        <v>0.09940061974763514</v>
       </c>
     </row>
     <row r="53">
@@ -4016,19 +4016,19 @@
         <v>64405</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>52029</v>
+        <v>51483</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>80256</v>
+        <v>78705</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1632438869165974</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1318750924970818</v>
+        <v>0.1304907973566427</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2034185080282662</v>
+        <v>0.1994881899769627</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>125</v>
@@ -4037,19 +4037,19 @@
         <v>63057</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>53382</v>
+        <v>52635</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>74786</v>
+        <v>75402</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1699609833967058</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1438852801286997</v>
+        <v>0.1418714490818556</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2015769900568446</v>
+        <v>0.203237485420416</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>207</v>
@@ -4058,19 +4058,19 @@
         <v>127462</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>110879</v>
+        <v>109221</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>149073</v>
+        <v>144569</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1664992088419676</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1448378472170259</v>
+        <v>0.1426716962153038</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1947289450968952</v>
+        <v>0.1888458236805343</v>
       </c>
     </row>
     <row r="54">
@@ -4087,19 +4087,19 @@
         <v>237201</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>214752</v>
+        <v>216759</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>256730</v>
+        <v>258377</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.6012176468632203</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.5443179343579138</v>
+        <v>0.5494029645626266</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.6507158978476112</v>
+        <v>0.654889605376772</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>353</v>
@@ -4108,19 +4108,19 @@
         <v>224935</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>207860</v>
+        <v>207000</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>240026</v>
+        <v>241075</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.6062835706587887</v>
+        <v>0.6062835706587885</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.5602603084517708</v>
+        <v>0.5579412969866038</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.6469595963179962</v>
+        <v>0.6497867792846743</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>605</v>
@@ -4129,19 +4129,19 @@
         <v>462137</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>434563</v>
+        <v>438312</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>488570</v>
+        <v>489452</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.6036727571705984</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.5676540305612593</v>
+        <v>0.5725516838151719</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.6382013681907274</v>
+        <v>0.6393532382765738</v>
       </c>
     </row>
     <row r="55">
@@ -4233,19 +4233,19 @@
         <v>13306</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>6023</v>
+        <v>6666</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>22939</v>
+        <v>24052</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.007524890284572741</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.003406081056984363</v>
+        <v>0.003770030403363832</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01297275446892566</v>
+        <v>0.0136020091838973</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>14</v>
@@ -4254,19 +4254,19 @@
         <v>12294</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>6797</v>
+        <v>6517</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>22904</v>
+        <v>23410</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.006711072548616983</v>
+        <v>0.006711072548616984</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.003710183428691179</v>
+        <v>0.003557698830558671</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01250279687396937</v>
+        <v>0.01277912096840457</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>26</v>
@@ -4275,19 +4275,19 @@
         <v>25600</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>16735</v>
+        <v>16324</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>38696</v>
+        <v>40095</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.00711078737456146</v>
+        <v>0.007110787374561459</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.004648458404861766</v>
+        <v>0.004534113149926488</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01074837043595606</v>
+        <v>0.01113688063231411</v>
       </c>
     </row>
     <row r="57">
@@ -4304,19 +4304,19 @@
         <v>25864</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>15894</v>
+        <v>16669</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>42710</v>
+        <v>44608</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.0146269880207039</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.008988673487078205</v>
+        <v>0.009426475276318234</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02415358730970582</v>
+        <v>0.02522681418105556</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>22</v>
@@ -4325,19 +4325,19 @@
         <v>17446</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>10990</v>
+        <v>10957</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>27445</v>
+        <v>27336</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.009523496217911124</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.005999072222924259</v>
+        <v>0.005981030510192984</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01498163133557846</v>
+        <v>0.01492208743808228</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>43</v>
@@ -4346,19 +4346,19 @@
         <v>43311</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>31119</v>
+        <v>30918</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>62415</v>
+        <v>60711</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.01203012792122076</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.008643649797526813</v>
+        <v>0.008587837352009565</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01733661057615596</v>
+        <v>0.01686316183326863</v>
       </c>
     </row>
     <row r="58">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>4037</v>
+        <v>4086</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.0003901138563999678</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.00220362554870432</v>
+        <v>0.002230425524439478</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>3725</v>
+        <v>4560</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.0001985054835174203</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.001034535133683063</v>
+        <v>0.00126651254483033</v>
       </c>
     </row>
     <row r="59">
@@ -4438,19 +4438,19 @@
         <v>4952</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>12834</v>
+        <v>12437</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.002800734103100999</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.000667541281393046</v>
+        <v>0.0006684144414577934</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.007257742086877901</v>
+        <v>0.00703367343299984</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>5</v>
@@ -4459,19 +4459,19 @@
         <v>3979</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>1395</v>
+        <v>1185</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>9336</v>
+        <v>9229</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.002171889178403697</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.0007616642959933978</v>
+        <v>0.0006468298991957088</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.005096307428910305</v>
+        <v>0.005038116885608592</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>9</v>
@@ -4480,19 +4480,19 @@
         <v>8931</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>4209</v>
+        <v>3746</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>18624</v>
+        <v>17417</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.002480752734106683</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.001169079524883641</v>
+        <v>0.001040395026761565</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.005173099419849377</v>
+        <v>0.004837700117193477</v>
       </c>
     </row>
     <row r="60">
@@ -4522,19 +4522,19 @@
         <v>4047</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>1418</v>
+        <v>1469</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>8866</v>
+        <v>9019</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002209019238747167</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.0007742007511117348</v>
+        <v>0.0008017063078463862</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.004839914769221317</v>
+        <v>0.00492304040549004</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>5</v>
@@ -4543,19 +4543,19 @@
         <v>4047</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>1415</v>
+        <v>1438</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>9468</v>
+        <v>9299</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.001124037059676269</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.0003930007864204598</v>
+        <v>0.0003994116552186074</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.002629855555250666</v>
+        <v>0.002582903951238993</v>
       </c>
     </row>
     <row r="61">
@@ -4572,19 +4572,19 @@
         <v>18922</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>10811</v>
+        <v>11587</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>30269</v>
+        <v>31682</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.01070104050333696</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.006113955465195098</v>
+        <v>0.006552882078231184</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.01711798698107404</v>
+        <v>0.01791695318250868</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>31</v>
@@ -4593,19 +4593,19 @@
         <v>20531</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>13971</v>
+        <v>13407</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>29334</v>
+        <v>28719</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.01120745780965326</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.00762623625559323</v>
+        <v>0.007318641474371281</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01601268124370744</v>
+        <v>0.01567705146746877</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>48</v>
@@ -4614,19 +4614,19 @@
         <v>39453</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>28640</v>
+        <v>29377</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>53214</v>
+        <v>52817</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.01095872581905372</v>
+        <v>0.01095872581905371</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.007955231362427097</v>
+        <v>0.008159924385928739</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01478088049292344</v>
+        <v>0.01467051305205086</v>
       </c>
     </row>
     <row r="62">
@@ -4643,19 +4643,19 @@
         <v>10347</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>5180</v>
+        <v>5077</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>19116</v>
+        <v>17785</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.005851341965206783</v>
+        <v>0.005851341965206782</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.002929355572787676</v>
+        <v>0.00287101703037939</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.01081037553324826</v>
+        <v>0.01005763086314052</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>18</v>
@@ -4664,19 +4664,19 @@
         <v>12601</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>7450</v>
+        <v>7655</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>19549</v>
+        <v>20060</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.006878517848489849</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.004066632343153102</v>
+        <v>0.004178908725018369</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.01067111451295688</v>
+        <v>0.01095011962194754</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>28</v>
@@ -4685,19 +4685,19 @@
         <v>22948</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>15332</v>
+        <v>15268</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>34267</v>
+        <v>32817</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.006374010006916863</v>
+        <v>0.006374010006916862</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.004258618628012918</v>
+        <v>0.004241024015428856</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.00951819914251553</v>
+        <v>0.009115391651030428</v>
       </c>
     </row>
     <row r="63">
@@ -4714,19 +4714,19 @@
         <v>44664</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>30889</v>
+        <v>29293</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>67004</v>
+        <v>67064</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.02525851632304172</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01746876079397611</v>
+        <v>0.0165656825695333</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.03789261019479253</v>
+        <v>0.03792650253889055</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>59</v>
@@ -4735,19 +4735,19 @@
         <v>47958</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>36400</v>
+        <v>36622</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>64806</v>
+        <v>65159</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02617897073310846</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01986992154754311</v>
+        <v>0.01999098623238249</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03537616448513557</v>
+        <v>0.03556874580466905</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>94</v>
@@ -4756,19 +4756,19 @@
         <v>92622</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>72795</v>
+        <v>73757</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>123432</v>
+        <v>119540</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.02572688022431958</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.02021991822448289</v>
+        <v>0.0204871038124317</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03428487864114369</v>
+        <v>0.03320379288675351</v>
       </c>
     </row>
     <row r="64">
@@ -4785,19 +4785,19 @@
         <v>37958</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>25217</v>
+        <v>24926</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>51362</v>
+        <v>54042</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.02146592299330794</v>
+        <v>0.02146592299330793</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.0142609043076567</v>
+        <v>0.01409618277292622</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.02904662057253867</v>
+        <v>0.03056227489918532</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>32</v>
@@ -4806,19 +4806,19 @@
         <v>21671</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>15030</v>
+        <v>14981</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>30683</v>
+        <v>31519</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.01182981692169814</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.008204420507363088</v>
+        <v>0.008178024171362534</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.01674885534097637</v>
+        <v>0.01720545456390849</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>66</v>
@@ -4827,19 +4827,19 @@
         <v>59629</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>44075</v>
+        <v>45575</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>75183</v>
+        <v>78528</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.01656268804384509</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.01224244269869223</v>
+        <v>0.0126591434414813</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.02088304538248582</v>
+        <v>0.0218121273696421</v>
       </c>
     </row>
     <row r="65">
@@ -4856,19 +4856,19 @@
         <v>105338</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>81711</v>
+        <v>81845</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>135538</v>
+        <v>134048</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.05957118526882549</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.04620949973009063</v>
+        <v>0.04628565152198209</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.07665003750176051</v>
+        <v>0.07580730436507495</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>130</v>
@@ -4877,19 +4877,19 @@
         <v>87362</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>72986</v>
+        <v>73458</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>104784</v>
+        <v>104217</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.04768879152569929</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.03984118927486087</v>
+        <v>0.04009904781029046</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05719923741678721</v>
+        <v>0.05688939550204156</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>210</v>
@@ -4898,19 +4898,19 @@
         <v>192700</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>165605</v>
+        <v>165663</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>229251</v>
+        <v>226768</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.05352494959524477</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.04599900324345831</v>
+        <v>0.04601507687719158</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.06367760555711105</v>
+        <v>0.06298790498848943</v>
       </c>
     </row>
     <row r="66">
@@ -4927,19 +4927,19 @@
         <v>202746</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>178236</v>
+        <v>180087</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>229882</v>
+        <v>232379</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1146576931333627</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1007970836553759</v>
+        <v>0.10184382291321</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1300041273725324</v>
+        <v>0.1314164209151778</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>305</v>
@@ -4948,19 +4948,19 @@
         <v>192585</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>170654</v>
+        <v>171564</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>214752</v>
+        <v>217882</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.1051273774912952</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.09315565401708006</v>
+        <v>0.09365269129679682</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1172278330430328</v>
+        <v>0.1189362977086242</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>535</v>
@@ -4969,19 +4969,19 @@
         <v>395330</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>363957</v>
+        <v>362312</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>430766</v>
+        <v>431347</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1098082885721911</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1010938385277516</v>
+        <v>0.1006369130307419</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1196509912434592</v>
+        <v>0.119812265041855</v>
       </c>
     </row>
     <row r="67">
@@ -4998,19 +4998,19 @@
         <v>1304171</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1263994</v>
+        <v>1260994</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>1347743</v>
+        <v>1343879</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.7375416874045408</v>
+        <v>0.7375416874045407</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.7148202483542626</v>
+        <v>0.7131236598147632</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.7621823324770265</v>
+        <v>0.7599974316555096</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>2086</v>
@@ -5019,19 +5019,19 @@
         <v>1410730</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>1380478</v>
+        <v>1379879</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>1445274</v>
+        <v>1442421</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.7700834766299769</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.7535697412487055</v>
+        <v>0.7532430138076429</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.7889406055383825</v>
+        <v>0.7873827794620818</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>3385</v>
@@ -5040,19 +5040,19 @@
         <v>2714902</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>2655798</v>
+        <v>2658373</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>2763947</v>
+        <v>2765848</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.7541002471653464</v>
+        <v>0.7541002471653463</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.7376834283730933</v>
+        <v>0.7383986728379125</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.7677233022518903</v>
+        <v>0.7682512278108123</v>
       </c>
     </row>
     <row r="68">
